--- a/src/test/resources/filepath/Test.xlsx
+++ b/src/test/resources/filepath/Test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Producto, Precio, Iva, Total</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Propiedad destacada x5;  $117.481;  IVA: $22.321;  Total: $139.802;  18-03-21</t>
+  </si>
+  <si>
+    <t>Propiedad destacada x60;  $1.028.220;  IVA: $195.362;  Total: $1.223.582;  22-03-21</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A62913-EEAF-4FB6-B95A-B8F46E178A92}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,6 +423,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
